--- a/Documents/Component Calculations.xlsx
+++ b/Documents/Component Calculations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
@@ -17,31 +17,31 @@
     <definedName name="AmpR2">Sheet1!$B$13</definedName>
     <definedName name="DivMaxPct">Sheet1!$B$18</definedName>
     <definedName name="DivMinPct">Sheet1!$B$17</definedName>
-    <definedName name="FloorRef2Res">Sheet1!$B$19</definedName>
-    <definedName name="FloorRefPct">Sheet1!$B$20</definedName>
-    <definedName name="MaxAmpGain">Sheet1!$B$23</definedName>
-    <definedName name="MaxAmpRangeV">Sheet1!$B$22</definedName>
+    <definedName name="FloorRef2Res">Sheet1!#REF!</definedName>
+    <definedName name="FloorRefPct">Sheet1!$B$19</definedName>
+    <definedName name="MaxAmpGain">Sheet1!$B$22</definedName>
+    <definedName name="MaxAmpRangeV">Sheet1!$B$21</definedName>
     <definedName name="MaxAref">Sheet1!$B$10</definedName>
     <definedName name="MaxOpOut">Sheet1!$B$11</definedName>
     <definedName name="MaxTemp">Sheet1!$B$4</definedName>
     <definedName name="MinAref">Sheet1!#REF!</definedName>
     <definedName name="MinTemp">Sheet1!$B$3</definedName>
-    <definedName name="OpAmpRange">Sheet1!$B$21</definedName>
+    <definedName name="OpAmpRange">Sheet1!$B$20</definedName>
     <definedName name="RD">Sheet1!$B$7</definedName>
     <definedName name="RFloor1">Sheet1!$B$8</definedName>
     <definedName name="RFloor2">Sheet1!$B$9</definedName>
-    <definedName name="RFloor2Eff">Sheet1!$B$19</definedName>
+    <definedName name="RFloor2Eff">Sheet1!#REF!</definedName>
     <definedName name="RTat0">Sheet1!$B$5</definedName>
     <definedName name="RTat25">Sheet1!$B$5</definedName>
     <definedName name="RTat75">Sheet1!$B$6</definedName>
-    <definedName name="ThermCurrent">Sheet1!$B$24</definedName>
+    <definedName name="ThermCurrent">Sheet1!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Defined Values</t>
   </si>
@@ -119,15 +119,6 @@
   </si>
   <si>
     <t>Actual Gain</t>
-  </si>
-  <si>
-    <t>Floor Ref 2 Effective Res</t>
-  </si>
-  <si>
-    <t>Parallel Amps</t>
-  </si>
-  <si>
-    <t>*Due to parallel resistence in the OP amp circuits</t>
   </si>
 </sst>
 </file>
@@ -472,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1470</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -547,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>34000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -588,14 +579,6 @@
         <v>33200</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>7</v>
@@ -621,84 +604,72 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <f>1/((1/(AmpR1+AmpR2))*B14+1/(RFloor2))</f>
-        <v>3895.8333333333335</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <f>RFloor2/(RFloor1+RFloor2)</f>
+        <v>0.77279752704791349</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <f>RFloor2Eff/(RFloor1+RFloor2Eff)</f>
-        <v>0.72604441683491217</v>
+        <f>DivMaxPct-FloorRefPct</f>
+        <v>1.1516198442282577E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2">
-        <f>DivMaxPct-FloorRefPct</f>
-        <v>5.8269308655283902E-2</v>
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>OpAmpRange*MaxAref</f>
+        <v>5.7580992211412885E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <f>OpAmpRange*MaxAref</f>
-        <v>0.29134654327641951</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
+        <f>MaxOpOut/MaxAmpRangeV</f>
+        <v>86.834210526316198</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <f>MaxOpOut/MaxAmpRangeV</f>
-        <v>17.161693232296816</v>
+        <f>MaxAref/(RTat75+RD)</f>
+        <v>3.2679738562091505E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <f>MaxAref/(RTat75+RD)</f>
-        <v>3.2679738562091505E-2</v>
+        <f>ThermCurrent*(MaxAref*DivMaxPct)</f>
+        <v>0.12815583749839807</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <f>ThermCurrent*(MaxAref*DivMaxPct)</f>
-        <v>0.12815583749839807</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
         <f>AmpR2/AmpR1</f>
         <v>16.600000000000001</v>
       </c>

--- a/Documents/Component Calculations.xlsx
+++ b/Documents/Component Calculations.xlsx
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>50000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" s="2">
         <f>RFloor2/(RFloor1+RFloor2)</f>
-        <v>0.77279752704791349</v>
+        <v>0.72106261859582543</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -617,7 +617,7 @@
       </c>
       <c r="B20" s="2">
         <f>DivMaxPct-FloorRefPct</f>
-        <v>1.1516198442282577E-2</v>
+        <v>6.3251106894370634E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -626,7 +626,7 @@
       </c>
       <c r="B21">
         <f>OpAmpRange*MaxAref</f>
-        <v>5.7580992211412885E-2</v>
+        <v>0.31625553447185317</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -638,7 +638,7 @@
       </c>
       <c r="B22">
         <f>MaxOpOut/MaxAmpRangeV</f>
-        <v>86.834210526316198</v>
+        <v>15.810000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:3">

--- a/Documents/Component Calculations.xlsx
+++ b/Documents/Component Calculations.xlsx
@@ -1,47 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="150 PTC" sheetId="1" r:id="rId1"/>
+    <sheet name="100 NTC" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AmpCnt">Sheet1!$B$14</definedName>
-    <definedName name="AmpR1">Sheet1!$B$12</definedName>
-    <definedName name="AmpR2">Sheet1!$B$13</definedName>
-    <definedName name="DivMaxPct">Sheet1!$B$18</definedName>
-    <definedName name="DivMinPct">Sheet1!$B$17</definedName>
-    <definedName name="FloorRef2Res">Sheet1!#REF!</definedName>
-    <definedName name="FloorRefPct">Sheet1!$B$19</definedName>
-    <definedName name="MaxAmpGain">Sheet1!$B$22</definedName>
-    <definedName name="MaxAmpRangeV">Sheet1!$B$21</definedName>
-    <definedName name="MaxAref">Sheet1!$B$10</definedName>
-    <definedName name="MaxOpOut">Sheet1!$B$11</definedName>
-    <definedName name="MaxTemp">Sheet1!$B$4</definedName>
-    <definedName name="MinAref">Sheet1!#REF!</definedName>
-    <definedName name="MinTemp">Sheet1!$B$3</definedName>
-    <definedName name="OpAmpRange">Sheet1!$B$20</definedName>
-    <definedName name="RD">Sheet1!$B$7</definedName>
-    <definedName name="RFloor1">Sheet1!$B$8</definedName>
-    <definedName name="RFloor2">Sheet1!$B$9</definedName>
-    <definedName name="RFloor2Eff">Sheet1!#REF!</definedName>
-    <definedName name="RTat0">Sheet1!$B$5</definedName>
-    <definedName name="RTat25">Sheet1!$B$5</definedName>
-    <definedName name="RTat75">Sheet1!$B$6</definedName>
-    <definedName name="ThermCurrent">Sheet1!$B$23</definedName>
+    <definedName name="AmpCnt" localSheetId="1">'100 NTC'!$B$14</definedName>
+    <definedName name="AmpCnt">'150 PTC'!$B$14</definedName>
+    <definedName name="AmpR1" localSheetId="1">'100 NTC'!$B$12</definedName>
+    <definedName name="AmpR1">'150 PTC'!$B$12</definedName>
+    <definedName name="AmpR2" localSheetId="1">'100 NTC'!$B$13</definedName>
+    <definedName name="AmpR2">'150 PTC'!$B$13</definedName>
+    <definedName name="DivMaxPct" localSheetId="1">'100 NTC'!$B$18</definedName>
+    <definedName name="DivMaxPct">'150 PTC'!$B$18</definedName>
+    <definedName name="DivMinPct" localSheetId="1">'100 NTC'!$B$17</definedName>
+    <definedName name="DivMinPct">'150 PTC'!$B$17</definedName>
+    <definedName name="FloorRef2Res" localSheetId="1">'100 NTC'!#REF!</definedName>
+    <definedName name="FloorRef2Res">'150 PTC'!#REF!</definedName>
+    <definedName name="FloorRefPct" localSheetId="1">'100 NTC'!$B$19</definedName>
+    <definedName name="FloorRefPct">'150 PTC'!$B$19</definedName>
+    <definedName name="MaxAmpGain" localSheetId="1">'100 NTC'!$B$22</definedName>
+    <definedName name="MaxAmpGain">'150 PTC'!$B$22</definedName>
+    <definedName name="MaxAmpRangeV" localSheetId="1">'100 NTC'!$B$21</definedName>
+    <definedName name="MaxAmpRangeV">'150 PTC'!$B$21</definedName>
+    <definedName name="MaxAref" localSheetId="1">'100 NTC'!$B$10</definedName>
+    <definedName name="MaxAref">'150 PTC'!$B$10</definedName>
+    <definedName name="MaxOpOut" localSheetId="1">'100 NTC'!$B$11</definedName>
+    <definedName name="MaxOpOut">'150 PTC'!$B$11</definedName>
+    <definedName name="MaxTemp" localSheetId="1">'100 NTC'!$B$4</definedName>
+    <definedName name="MaxTemp">'150 PTC'!$B$4</definedName>
+    <definedName name="MinAref" localSheetId="1">'100 NTC'!#REF!</definedName>
+    <definedName name="MinAref">'150 PTC'!#REF!</definedName>
+    <definedName name="MinTemp" localSheetId="1">'100 NTC'!$B$3</definedName>
+    <definedName name="MinTemp">'150 PTC'!$B$3</definedName>
+    <definedName name="OpAmpRange" localSheetId="1">'100 NTC'!$B$20</definedName>
+    <definedName name="OpAmpRange">'150 PTC'!$B$20</definedName>
+    <definedName name="RD" localSheetId="1">'100 NTC'!$B$7</definedName>
+    <definedName name="RD">'150 PTC'!$B$7</definedName>
+    <definedName name="RFloor1" localSheetId="1">'100 NTC'!$B$8</definedName>
+    <definedName name="RFloor1">'150 PTC'!$B$8</definedName>
+    <definedName name="RFloor2" localSheetId="1">'100 NTC'!$B$9</definedName>
+    <definedName name="RFloor2">'150 PTC'!$B$9</definedName>
+    <definedName name="RFloor2Eff" localSheetId="1">'100 NTC'!#REF!</definedName>
+    <definedName name="RFloor2Eff">'150 PTC'!#REF!</definedName>
+    <definedName name="RTat0" localSheetId="1">'100 NTC'!$B$5</definedName>
+    <definedName name="RTat0">'150 PTC'!$B$5</definedName>
+    <definedName name="RTat25" localSheetId="1">'100 NTC'!$B$5</definedName>
+    <definedName name="RTat25">'150 PTC'!$B$5</definedName>
+    <definedName name="RTat75" localSheetId="1">'100 NTC'!$B$6</definedName>
+    <definedName name="RTat75">'150 PTC'!$B$6</definedName>
+    <definedName name="ThermCurrent" localSheetId="1">'100 NTC'!$B$23</definedName>
+    <definedName name="ThermCurrent">'150 PTC'!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Defined Values</t>
   </si>
@@ -119,6 +142,9 @@
   </si>
   <si>
     <t>Actual Gain</t>
+  </si>
+  <si>
+    <t>RT@50</t>
   </si>
 </sst>
 </file>
@@ -466,7 +492,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -511,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -530,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>14700</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -538,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>38000</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -576,7 +602,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>33200</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
@@ -590,7 +616,7 @@
       </c>
       <c r="B17" s="2">
         <f>RTat0/(RTat0+RD)</f>
-        <v>0.73170731707317072</v>
+        <v>0.8035714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -599,7 +625,7 @@
       </c>
       <c r="B18" s="2">
         <f>RTat75/(RTat75+RD)</f>
-        <v>0.78431372549019607</v>
+        <v>0.84651162790697676</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -608,7 +634,7 @@
       </c>
       <c r="B19" s="2">
         <f>RFloor2/(RFloor1+RFloor2)</f>
-        <v>0.72106261859582543</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -617,7 +643,7 @@
       </c>
       <c r="B20" s="2">
         <f>DivMaxPct-FloorRefPct</f>
-        <v>6.3251106894370634E-2</v>
+        <v>6.526162790697676E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -626,7 +652,7 @@
       </c>
       <c r="B21">
         <f>OpAmpRange*MaxAref</f>
-        <v>0.31625553447185317</v>
+        <v>0.3263081395348838</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -638,7 +664,7 @@
       </c>
       <c r="B22">
         <f>MaxOpOut/MaxAmpRangeV</f>
-        <v>15.810000000000004</v>
+        <v>15.322939866369707</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -647,7 +673,7 @@
       </c>
       <c r="B23">
         <f>MaxAref/(RTat75+RD)</f>
-        <v>3.2679738562091505E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -659,7 +685,7 @@
       </c>
       <c r="B24">
         <f>ThermCurrent*(MaxAref*DivMaxPct)</f>
-        <v>0.12815583749839807</v>
+        <v>9.843158464034614E-2</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -671,7 +697,7 @@
       </c>
       <c r="B25">
         <f>AmpR2/AmpR1</f>
-        <v>16.600000000000001</v>
+        <v>15.05</v>
       </c>
     </row>
   </sheetData>
@@ -682,13 +708,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20.6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <f>RTat75/(RTat75+RD)</f>
+        <v>0.38432835820895522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <f>RTat0/(RTat0+RD)</f>
+        <v>0.56578947368421051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <f>RFloor2/(RFloor1+RFloor2)</f>
+        <v>0.35372340425531917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <f>DivMaxPct-FloorRefPct</f>
+        <v>0.21206606942889134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>OpAmpRange*MaxAref</f>
+        <v>1.0603303471444567</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>MaxOpOut/MaxAmpRangeV</f>
+        <v>4.7155115511551164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f>MaxAref/(RTat75+RD)</f>
+        <v>9.3283582089552231E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <f>ThermCurrent*(MaxAref*DivMaxPct)</f>
+        <v>0.26389434406912804</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f>AmpR2/AmpR1</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
